--- a/MainMathProject/bin/Debug/test.XLSX
+++ b/MainMathProject/bin/Debug/test.XLSX
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>x</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>dev</t>
+  </si>
+  <si>
+    <t>corell</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
   </si>
 </sst>
 </file>
@@ -168,34 +177,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-1.6865550861170593</c:v>
+                  <c:v>-1.3839803543487497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.5804824391914583</c:v>
+                  <c:v>-1.019774997941185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.30761067608424397</c:v>
+                  <c:v>-0.54630803461134636</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.2429058770240988E-2</c:v>
+                  <c:v>-0.36420535640756441</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.2429058770240988E-2</c:v>
+                  <c:v>-0.14568214256302664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0607264692559893E-2</c:v>
+                  <c:v>1.821026782037909E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64704314624616666</c:v>
+                  <c:v>3.6420535640756965E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70007946970896762</c:v>
+                  <c:v>0.20031294602416269</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1243700574113722</c:v>
+                  <c:v>1.1472468726838301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1774063808741726</c:v>
+                  <c:v>2.0577602637027432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -210,11 +219,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="120637696"/>
-        <c:axId val="120637120"/>
+        <c:axId val="75497472"/>
+        <c:axId val="75498048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120637696"/>
+        <c:axId val="75497472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -224,12 +233,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120637120"/>
+        <c:crossAx val="75498048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120637120"/>
+        <c:axId val="75498048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -240,7 +249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120637696"/>
+        <c:crossAx val="75497472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -266,16 +275,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -587,7 +596,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+      <selection activeCell="J12" sqref="I2:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,12 +643,12 @@
         <v>-1.6448536269514726</v>
       </c>
       <c r="F2">
-        <f>(B2-AVERAGE(B$2:B$11))/_xlfn.STDEV.S(B$2:B$11)</f>
-        <v>-1.6865550861170593</v>
+        <f>(G2-AVERAGE(G$2:G$11))/_xlfn.STDEV.S(G$2:G$11)</f>
+        <v>-1.3839803543487497</v>
       </c>
       <c r="G2" s="1">
-        <f>B2-AVERAGE($B$2:$B$11)</f>
-        <v>-3.1800000000000006</v>
+        <f>B2 - ($F$16 + A2 * $E$16)</f>
+        <v>-0.76000000000000068</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,74 +662,74 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D11" si="0">(C3-0.5)/10</f>
+        <f>(C3-0.5)/10</f>
         <v>0.15</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="1">_xlfn.NORM.S.INV(D3)</f>
+        <f>_xlfn.NORM.S.INV(D3)</f>
         <v>-1.0364333894937898</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="2">(B3-AVERAGE(B$2:B$11))/_xlfn.STDEV.S(B$2:B$11)</f>
-        <v>-1.5804824391914583</v>
+        <f t="shared" ref="F3:F11" si="0">(G3-AVERAGE(G$2:G$11))/_xlfn.STDEV.S(G$2:G$11)</f>
+        <v>-1.019774997941185</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G11" si="3">B3-AVERAGE($B$2:$B$11)</f>
-        <v>-2.9800000000000009</v>
+        <f>B3 - ($F$16 + A3 * $E$16)</f>
+        <v>-0.56000000000000094</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>5.8</v>
+        <v>8.5</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
+        <f>(C4-0.5)/10</f>
+        <v>0.25</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.NORM.S.INV(D4)</f>
+        <v>-0.67448975019608193</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>-0.67448975019608193</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>-0.30761067608424397</v>
+        <v>-0.54630803461134636</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.58000000000000096</v>
+        <f>B4 - ($F$16 + A4 * $E$16)</f>
+        <v>-0.29999999999999893</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
+        <f>(C5-0.5)/10</f>
+        <v>0.35</v>
+      </c>
+      <c r="E5">
+        <f>_xlfn.NORM.S.INV(D5)</f>
+        <v>-0.38532046640756784</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>-0.38532046640756784</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>-4.2429058770240988E-2</v>
+        <v>-0.36420535640756441</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="3"/>
-        <v>-8.0000000000000959E-2</v>
+        <f>B5 - ($F$16 + A5 * $E$16)</f>
+        <v>-0.19999999999999929</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -734,74 +743,74 @@
         <v>5</v>
       </c>
       <c r="D6">
+        <f>(C6-0.5)/10</f>
+        <v>0.45</v>
+      </c>
+      <c r="E6">
+        <f>_xlfn.NORM.S.INV(D6)</f>
+        <v>-0.12566134685507402</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>-0.12566134685507402</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>-4.2429058770240988E-2</v>
+        <v>-0.14568214256302664</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="3"/>
-        <v>-8.0000000000000959E-2</v>
+        <f>B6 - ($F$16 + A6 * $E$16)</f>
+        <v>-8.0000000000000071E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
+        <f>(C7-0.5)/10</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E7">
+        <f>_xlfn.NORM.S.INV(D7)</f>
+        <v>0.12566134685507416</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.12566134685507416</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>1.0607264692559893E-2</v>
+        <v>1.821026782037909E-2</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.9999999999999574E-2</v>
+        <f>B7 - ($F$16 + A7 * $E$16)</f>
+        <v>1.0000000000000675E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8">
+        <f>(C8-0.5)/10</f>
+        <v>0.65</v>
+      </c>
+      <c r="E8">
+        <f>_xlfn.NORM.S.INV(D8)</f>
+        <v>0.38532046640756784</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>0.65</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.38532046640756784</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>0.64704314624616666</v>
+        <v>3.6420535640756965E-2</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="3"/>
-        <v>1.2199999999999989</v>
+        <f>B8 - ($F$16 + A8 * $E$16)</f>
+        <v>2.0000000000000462E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -815,85 +824,108 @@
         <v>8</v>
       </c>
       <c r="D9">
+        <f>(C9-0.5)/10</f>
+        <v>0.75</v>
+      </c>
+      <c r="E9">
+        <f>_xlfn.NORM.S.INV(D9)</f>
+        <v>0.67448975019608193</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.67448975019608193</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>0.70007946970896762</v>
+        <v>0.20031294602416269</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="3"/>
-        <v>1.3199999999999994</v>
+        <f>B9 - ($F$16 + A9 * $E$16)</f>
+        <v>0.11000000000000121</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>8.5</v>
+        <v>5.8</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
+        <f>(C10-0.5)/10</f>
+        <v>0.85</v>
+      </c>
+      <c r="E10">
+        <f>_xlfn.NORM.S.INV(D10)</f>
+        <v>1.0364333894937898</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>0.85</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>1.0364333894937898</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>1.1243700574113722</v>
+        <v>1.1472468726838301</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="3"/>
-        <v>2.1199999999999992</v>
+        <f>B10 - ($F$16 + A10 * $E$16)</f>
+        <v>0.62999999999999989</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
+        <f>(C11-0.5)/10</f>
+        <v>0.95</v>
+      </c>
+      <c r="E11">
+        <f>_xlfn.NORM.S.INV(D11)</f>
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>1.6448536269514715</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>1.1774063808741726</v>
+        <v>2.0577602637027432</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="3"/>
-        <v>2.2199999999999989</v>
+        <f>B11 - ($F$16 + A11 * $E$16)</f>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f>AVERAGE(B2:B11)</f>
-        <v>6.3800000000000008</v>
+        <v>6.38</v>
+      </c>
+      <c r="D16">
+        <f>CORREL(A2:A11,B2:B11)</f>
+        <v>0.95664878461854475</v>
+      </c>
+      <c r="E16">
+        <f>D16*_xlfn.STDEV.S(B2:B11)/_xlfn.STDEV.S(A2:A11)</f>
+        <v>1.2099999999999995</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGE(B2:B11) - AVERAGE(A2:A11)*E16</f>
+        <v>1.5400000000000018</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B11">
-    <sortCondition ref="B2:B11"/>
+  <sortState ref="C2:D11">
+    <sortCondition ref="C2:C11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
